--- a/Streak 3/New Units.xlsx
+++ b/Streak 3/New Units.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="120">
   <si>
     <r>
       <t xml:space="preserve">Unit strength increases +15% per tier for </t>
@@ -492,89 +492,95 @@
     <t>Weapons/Armour</t>
   </si>
   <si>
+    <t>Beast</t>
+  </si>
+  <si>
+    <t>Magical Items</t>
+  </si>
+  <si>
+    <t>Vision +2</t>
+  </si>
+  <si>
+    <t>Vision +1</t>
+  </si>
+  <si>
+    <t>Skills</t>
+  </si>
+  <si>
+    <t>Humans only</t>
+  </si>
+  <si>
+    <t>Animal Only</t>
+  </si>
+  <si>
+    <t>Beast Only</t>
+  </si>
+  <si>
+    <t>Non Mounted</t>
+  </si>
+  <si>
+    <t>Strength +10%</t>
+  </si>
+  <si>
+    <t>Strength +20%</t>
+  </si>
+  <si>
+    <t>Strength +5%</t>
+  </si>
+  <si>
+    <t>City Garrison +20%</t>
+  </si>
+  <si>
+    <t>Flanking +10%</t>
+  </si>
+  <si>
+    <t>City Raider +10%</t>
+  </si>
+  <si>
+    <t>City Raider +20%</t>
+  </si>
+  <si>
+    <t>City Raider +30%</t>
+  </si>
+  <si>
+    <t>Horses
+Requires: Horses + Mounted 1
+Strength +5%</t>
+  </si>
+  <si>
     <t>War Horses
-Requires: Horses + Stable</t>
-  </si>
-  <si>
-    <t>Horses
-Requires: Horses</t>
+Requires: Horses + Mounted 2
+Strength +10%, +10% Withdraw</t>
   </si>
   <si>
     <t>Elephants
-Requires: Elephants</t>
+Requires: Elephants + Mounted 1
+Strength +5%</t>
   </si>
   <si>
     <t>War Elephants
-Requires: Elephants + Stable</t>
-  </si>
-  <si>
-    <t>Beast</t>
-  </si>
-  <si>
-    <t>Double Hills</t>
-  </si>
-  <si>
-    <t>Double Forest/Jungle</t>
-  </si>
-  <si>
-    <t>Mountain Walk</t>
-  </si>
-  <si>
-    <t>March</t>
-  </si>
-  <si>
-    <t>Magical Items</t>
-  </si>
-  <si>
-    <t>Vision +2</t>
-  </si>
-  <si>
-    <t>Vision +1</t>
-  </si>
-  <si>
-    <t>Skills</t>
-  </si>
-  <si>
-    <t>City Raider</t>
-  </si>
-  <si>
-    <t>City Garrison</t>
-  </si>
-  <si>
-    <t>Water Walk</t>
-  </si>
-  <si>
-    <t>Flanking</t>
-  </si>
-  <si>
-    <t>Humans only</t>
-  </si>
-  <si>
-    <t>Animal Only</t>
-  </si>
-  <si>
-    <t>Beast Only</t>
-  </si>
-  <si>
-    <t>Non Mounted</t>
-  </si>
-  <si>
-    <t>Strength +10%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desert Bonus +15% </t>
-  </si>
-  <si>
-    <t>Forest/Jungle Bonus +15%</t>
-  </si>
-  <si>
-    <t>Hill Bonus +15%</t>
-  </si>
-  <si>
-    <t>Strength +20%</t>
-  </si>
-  <si>
-    <t>Strength +5%</t>
+Requires: Elephants + Mounted 2
+Strength +10%</t>
+  </si>
+  <si>
+    <t>Water Walk
+Requires: Castle Age</t>
+  </si>
+  <si>
+    <t>Double Hills
+Requires: Feudal</t>
+  </si>
+  <si>
+    <t>Double Forest/Jungle
+Requires: Feudal</t>
+  </si>
+  <si>
+    <t>Mountain Walk
+Requires: Castle Age</t>
+  </si>
+  <si>
+    <t>March
+No reqs</t>
   </si>
 </sst>
 </file>
@@ -1281,7 +1287,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -2276,15 +2282,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F29"/>
+  <dimension ref="A2:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.42578125" customWidth="1"/>
+    <col min="1" max="1" width="40.7109375" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
     <col min="3" max="3" width="19.85546875" customWidth="1"/>
     <col min="4" max="4" width="21.28515625" customWidth="1"/>
@@ -2303,39 +2309,39 @@
         <v>93</v>
       </c>
       <c r="D2" s="42" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E2" s="42" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F2" s="42" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="42" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="C3" s="42" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="D3" s="42" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="E3" s="42" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="F3" s="42" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="42"/>
       <c r="B4" s="42" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C4" s="42"/>
       <c r="D4" s="42"/>
@@ -2353,9 +2359,11 @@
       <c r="A6" s="42"/>
       <c r="B6" s="42"/>
       <c r="C6" t="s">
-        <v>120</v>
-      </c>
-      <c r="D6" s="42"/>
+        <v>105</v>
+      </c>
+      <c r="D6" t="s">
+        <v>108</v>
+      </c>
       <c r="E6" s="42"/>
       <c r="F6" s="42"/>
     </row>
@@ -2371,90 +2379,75 @@
       <c r="A8" s="42"/>
       <c r="B8" s="42"/>
       <c r="C8" t="s">
-        <v>115</v>
-      </c>
-      <c r="D8" s="42"/>
+        <v>103</v>
+      </c>
+      <c r="D8" t="s">
+        <v>109</v>
+      </c>
       <c r="E8" s="42"/>
       <c r="F8" s="42"/>
     </row>
-    <row r="9" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A9" s="41" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="B9" s="41" t="s">
-        <v>109</v>
-      </c>
-      <c r="D9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="F9" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+      <c r="D10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A11" s="41" t="s">
-        <v>94</v>
-      </c>
-      <c r="D11" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>99</v>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B12" s="41" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B15" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="D15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A17" s="41" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B18" s="41" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A20" s="41" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>118</v>
+        <v>114</v>
+      </c>
+      <c r="B20" s="41" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2473,7 +2466,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C4" sqref="A4:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/Streak 3/New Units.xlsx
+++ b/Streak 3/New Units.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="126">
   <si>
     <r>
       <t xml:space="preserve">Unit strength increases +15% per tier for </t>
@@ -495,15 +495,6 @@
     <t>Beast</t>
   </si>
   <si>
-    <t>Magical Items</t>
-  </si>
-  <si>
-    <t>Vision +2</t>
-  </si>
-  <si>
-    <t>Vision +1</t>
-  </si>
-  <si>
     <t>Skills</t>
   </si>
   <si>
@@ -519,28 +510,7 @@
     <t>Non Mounted</t>
   </si>
   <si>
-    <t>Strength +10%</t>
-  </si>
-  <si>
-    <t>Strength +20%</t>
-  </si>
-  <si>
     <t>Strength +5%</t>
-  </si>
-  <si>
-    <t>City Garrison +20%</t>
-  </si>
-  <si>
-    <t>Flanking +10%</t>
-  </si>
-  <si>
-    <t>City Raider +10%</t>
-  </si>
-  <si>
-    <t>City Raider +20%</t>
-  </si>
-  <si>
-    <t>City Raider +30%</t>
   </si>
   <si>
     <t>Horses
@@ -581,6 +551,82 @@
   <si>
     <t>March
 No reqs</t>
+  </si>
+  <si>
+    <t>City Garrison +10%
+Feudal</t>
+  </si>
+  <si>
+    <t>City Garrison +20%
+Castle</t>
+  </si>
+  <si>
+    <t>City Raider +45%
+Imperial</t>
+  </si>
+  <si>
+    <t>City Raider +15%
+Feudal</t>
+  </si>
+  <si>
+    <t>City Raider +30%
+Castle</t>
+  </si>
+  <si>
+    <t>City Garrison +30%
+Imperial</t>
+  </si>
+  <si>
+    <t>Strength +5%
+Cannibalism +10%</t>
+  </si>
+  <si>
+    <t>Vision +2
+Castle</t>
+  </si>
+  <si>
+    <t>Vision +1
+Feudal</t>
+  </si>
+  <si>
+    <t>Movement +1
+March
+Imperial</t>
+  </si>
+  <si>
+    <t>Strength +10%
+Feudal
+Copper</t>
+  </si>
+  <si>
+    <t>Strength +15%
+Castle
+Iron</t>
+  </si>
+  <si>
+    <t>Strength +25%
+Imperial
+Mithril</t>
+  </si>
+  <si>
+    <t>Strength +10%
+Cannibalism +10%
+Feudal
+Cow/Corn</t>
+  </si>
+  <si>
+    <t>Strength +15%
+Cannibalism +10%
+Castle
+Pig/Wheat</t>
+  </si>
+  <si>
+    <t>Strength +20%
+Cannibalism +10%
+Withdraw +10%
+March
+Imperial
+Sheep/Rice</t>
   </si>
 </sst>
 </file>
@@ -705,7 +751,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -831,6 +877,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1288,7 +1337,7 @@
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2282,10 +2331,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F20"/>
+  <dimension ref="A2:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2309,39 +2358,35 @@
         <v>93</v>
       </c>
       <c r="D2" s="42" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E2" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="F2" s="42" t="s">
-        <v>95</v>
-      </c>
+      <c r="F2" s="42"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="42" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C3" s="42" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D3" s="42" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E3" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="F3" s="42" t="s">
-        <v>99</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="F3" s="42"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="42"/>
       <c r="B4" s="42" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C4" s="42"/>
       <c r="D4" s="42"/>
@@ -2355,100 +2400,158 @@
       <c r="E5" s="42"/>
       <c r="F5" s="42"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="42"/>
-      <c r="B6" s="42"/>
-      <c r="C6" t="s">
+    <row r="6" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="E6" s="43" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A8" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="E8" s="43" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A10" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="D10" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="E10" s="43" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="E12" s="43" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="D6" t="s">
-        <v>108</v>
-      </c>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="42"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="42"/>
-      <c r="B8" s="42"/>
-      <c r="C8" t="s">
-        <v>103</v>
-      </c>
-      <c r="D8" t="s">
-        <v>109</v>
-      </c>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-    </row>
-    <row r="9" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="41" t="s">
+      <c r="C14" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="D14" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="E14" s="43"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="D16" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="F9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C10" t="s">
-        <v>104</v>
-      </c>
-      <c r="D10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="41" t="s">
-        <v>112</v>
-      </c>
-      <c r="F11" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B12" s="41" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D13" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B15" s="41" t="s">
-        <v>117</v>
-      </c>
-      <c r="D15" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="41" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B18" s="41" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="41" t="s">
-        <v>114</v>
-      </c>
-      <c r="B20" s="41" t="s">
-        <v>119</v>
-      </c>
+      <c r="E16" s="43"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C18" s="43"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C20" s="43"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C22" s="43"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C24" s="43"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>

--- a/Streak 3/New Units.xlsx
+++ b/Streak 3/New Units.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="127">
   <si>
     <r>
       <t xml:space="preserve">Unit strength increases +15% per tier for </t>
@@ -627,6 +627,10 @@
 March
 Imperial
 Sheep/Rice</t>
+  </si>
+  <si>
+    <t>Invisibility Boots
+Imperial</t>
   </si>
 </sst>
 </file>
@@ -2333,8 +2337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2532,7 +2536,10 @@
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B18" s="41" t="s">
+        <v>126</v>
+      </c>
       <c r="C18" s="43"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">

--- a/Streak 3/New Units.xlsx
+++ b/Streak 3/New Units.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
   </bookViews>
   <sheets>
     <sheet name="New Units" sheetId="1" r:id="rId1"/>
     <sheet name="Upgrades" sheetId="2" r:id="rId2"/>
     <sheet name="Promotions" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525" iterateDelta="1E-4"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="134">
   <si>
     <r>
       <t xml:space="preserve">Unit strength increases +15% per tier for </t>
@@ -89,9 +90,6 @@
     <t>Golem (ALL)</t>
   </si>
   <si>
-    <t>Lesser Golem 87 (-15%)</t>
-  </si>
-  <si>
     <t>Golem 115 (-15%)</t>
   </si>
   <si>
@@ -99,10 +97,6 @@
   </si>
   <si>
     <t>Assault (1)</t>
-  </si>
-  <si>
-    <t>Axeman 100
-15% Vs Company</t>
   </si>
   <si>
     <t>Swordsman 132
@@ -116,10 +110,6 @@
     <t>Ranged (2)</t>
   </si>
   <si>
-    <t>Archer 100
-15% Vs Assault</t>
-  </si>
-  <si>
     <t>Longbowman 132
 15% Vs Assault</t>
   </si>
@@ -131,10 +121,6 @@
     <t>Company (3)</t>
   </si>
   <si>
-    <t>Militia 100
-15% Vs Ranged</t>
-  </si>
-  <si>
     <t>Spearman 132
 15% Vs Ranged</t>
   </si>
@@ -144,14 +130,6 @@
   </si>
   <si>
     <t>Melee</t>
-  </si>
-  <si>
-    <t>Warrior 76</t>
-  </si>
-  <si>
-    <t>Bandit 91
-Pillage x2
-15% Forest/Jungle Strength</t>
   </si>
   <si>
     <t>Highlander 120
@@ -164,12 +142,6 @@
   </si>
   <si>
     <t>Mounted (4)</t>
-  </si>
-  <si>
-    <t>Horseman 95 (-5%)
-2 Moves
-10% Withdraw
-No Def Bonus</t>
   </si>
   <si>
     <t>Knight 126 (-5%)
@@ -188,12 +160,6 @@
     <t>Elephant (4)</t>
   </si>
   <si>
-    <t>Elephant 120 – Limit 3
-2 Moves
-Uses 2 Stack Capacity
-No Def Bonus</t>
-  </si>
-  <si>
     <t>War Elephant 158 – Limit 3
 2 Moves
 Uses 2 Stack Capacity
@@ -203,25 +169,11 @@
     <t>Recon (5)</t>
   </si>
   <si>
-    <t>Scout 46
-2 Moves
-Ignore Terrain Cost</t>
-  </si>
-  <si>
-    <t>Hunter 91 (-10%)
-See Invis
-Carry Hawk</t>
-  </si>
-  <si>
     <t>Hawk
 3x3 area</t>
   </si>
   <si>
     <t>Ranger</t>
-  </si>
-  <si>
-    <t>Ranger 91
-Move Impassable Terrain</t>
   </si>
   <si>
     <t>Forester 120
@@ -232,9 +184,6 @@
     <t>Arcane (6)</t>
   </si>
   <si>
-    <t>Adept 76</t>
-  </si>
-  <si>
     <t>Mage 91</t>
   </si>
   <si>
@@ -246,11 +195,6 @@
   </si>
   <si>
     <t>Beast (7)</t>
-  </si>
-  <si>
-    <t>Drown 95
-Water Walking
-No Happy</t>
   </si>
   <si>
     <t>Stygian Drown 126
@@ -275,13 +219,6 @@
     <t>Navy</t>
   </si>
   <si>
-    <t>Galley 91
-Capacity: 2
-Ocean Def Bonus?
-No Ocean
-No Happy</t>
-  </si>
-  <si>
     <t>Caravel 120
 Capacity: 3
 Sentry 1
@@ -295,13 +232,6 @@
 Ocean Def Bonus?
 Bombard 10%
 No Happy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trireme 100
-Ocean Def Bonus?
-No Ocean
-No Happy
-</t>
   </si>
   <si>
     <t>Galleon 132
@@ -349,15 +279,6 @@
 No Pillage</t>
   </si>
   <si>
-    <t xml:space="preserve">Myconid 46
-Cast Bloom (3 turns)
-Can't attack
-No Happy
-No Defence
-No Pillage
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Dwarf 46
 Can Uplift (4 turns)
 Can't attack
@@ -387,13 +308,6 @@
 No Happy</t>
   </si>
   <si>
-    <t>Baby Spider 91
-Invisible
-No Def
-No Pillage
-No Happy</t>
-  </si>
-  <si>
     <t>Drown Hunting Pack 167
 Water Walking
 No Happy</t>
@@ -419,13 +333,6 @@
 No Def
 No Pillage
 No Happy</t>
-  </si>
-  <si>
-    <t>Battering Ram 10
-Bombard 10%
-No Attack
-No Upkeep
-Not Alive</t>
   </si>
   <si>
     <t>Catapult 30
@@ -631,6 +538,138 @@
   <si>
     <t>Invisibility Boots
 Imperial</t>
+  </si>
+  <si>
+    <t>Warrior 76
+20H</t>
+  </si>
+  <si>
+    <t>Warrior</t>
+  </si>
+  <si>
+    <t>Hammers</t>
+  </si>
+  <si>
+    <t>Militia</t>
+  </si>
+  <si>
+    <t>Str/Hammers</t>
+  </si>
+  <si>
+    <t>Axeman</t>
+  </si>
+  <si>
+    <t>Strength</t>
+  </si>
+  <si>
+    <t>Scout 46
+2 Moves
+Ignore Terrain Cost
+20H</t>
+  </si>
+  <si>
+    <t>Axeman 100
+15% Vs Company
+60H</t>
+  </si>
+  <si>
+    <t>Archer 100
+15% Vs Assault
+60H</t>
+  </si>
+  <si>
+    <t>Militia 100
+15% Vs Ranged
+60H</t>
+  </si>
+  <si>
+    <t>Horseman 95 (-5%)
+2 Moves
+10% Withdraw
+No Def Bonus
+60H</t>
+  </si>
+  <si>
+    <t>Hunter 91 (-10%)
+See Invis
+Carry Hawk
+50H</t>
+  </si>
+  <si>
+    <t>Lesser Golem 87 (-15%)
+34H</t>
+  </si>
+  <si>
+    <t>Bandit 91
+Pillage x2
+15% Forest/Jungle Strength
+48H</t>
+  </si>
+  <si>
+    <t>50H</t>
+  </si>
+  <si>
+    <t>Ranger 91
+Move Impassable Terrain
+45H</t>
+  </si>
+  <si>
+    <t>Adept 76
+75H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myconid 46
+Cast Bloom (4 turns)
+Double Move Forest/Jungle
+No Happy
+No Pillage
+25H
+</t>
+  </si>
+  <si>
+    <t>Baby Spider 91
+Invisible
+No Def
+No Pillage
+No Happy
+48H</t>
+  </si>
+  <si>
+    <t>Drown 95
+Water Walking
+No Happy
+55H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trireme 100
+Ocean Def Bonus?
+No Ocean
+No Happy
+60H
+</t>
+  </si>
+  <si>
+    <t>Galley 91
+Capacity: 2
+Ocean Def Bonus?
+No Ocean
+No Happy
+48H</t>
+  </si>
+  <si>
+    <t>Battering Ram 10
+Bombard 10%
+No Attack
+No Upkeep
+Not Alive
+20H</t>
+  </si>
+  <si>
+    <t>Elephant 120 – Limit 3
+2 Moves
+Uses 2 Stack Capacity
+No Def Bonus
+108H</t>
   </si>
 </sst>
 </file>
@@ -755,7 +794,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -882,6 +921,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1338,10 +1380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J100"/>
+  <dimension ref="A1:J102"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1433,71 +1475,71 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="5"/>
-      <c r="D6" s="6" t="s">
-        <v>9</v>
+      <c r="D6" s="11" t="s">
+        <v>122</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
     </row>
-    <row r="8" spans="1:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" s="5" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="G8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="I8" s="9" t="s">
         <v>13</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
     </row>
-    <row r="10" spans="1:9" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="11" t="s">
         <v>16</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
     </row>
-    <row r="12" spans="1:9" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>21</v>
+        <v>119</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -1505,20 +1547,20 @@
     </row>
     <row r="14" spans="1:9" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B14" s="15"/>
-      <c r="C14" s="16" t="s">
-        <v>25</v>
+      <c r="C14" s="44" t="s">
+        <v>109</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>26</v>
+        <v>123</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H14" s="35" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
@@ -1528,7 +1570,7 @@
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
       <c r="F15" s="9" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G15" s="15"/>
       <c r="H15" s="35"/>
@@ -1539,16 +1581,16 @@
     </row>
     <row r="17" spans="1:9" s="18" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="H17" s="19" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
@@ -1563,7 +1605,7 @@
       <c r="D19" s="19"/>
       <c r="F19" s="19"/>
       <c r="H19" s="39" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="I19" s="19"/>
     </row>
@@ -1605,15 +1647,15 @@
     <row r="25" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="17"/>
     </row>
-    <row r="26" spans="1:9" s="18" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" s="18" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A26" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>34</v>
+        <v>133</v>
       </c>
       <c r="G26" s="19" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -1621,17 +1663,17 @@
     </row>
     <row r="28" spans="1:9" s="5" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A28" s="22" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>37</v>
+        <v>116</v>
       </c>
       <c r="C28"/>
       <c r="D28" s="9" t="s">
-        <v>38</v>
+        <v>121</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="I28" s="9"/>
     </row>
@@ -1640,7 +1682,7 @@
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
       <c r="D29" s="9" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H29" s="36"/>
     </row>
@@ -1648,7 +1690,9 @@
       <c r="A30" s="22"/>
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
-      <c r="D30" s="9"/>
+      <c r="D30" s="9" t="s">
+        <v>124</v>
+      </c>
       <c r="H30" s="36"/>
     </row>
     <row r="31" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1670,16 +1714,16 @@
     </row>
     <row r="34" spans="1:9" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A34" s="24" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>41</v>
+        <v>125</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H34" s="36" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="I34" s="9"/>
     </row>
@@ -1715,19 +1759,19 @@
     </row>
     <row r="40" spans="1:9" s="26" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A40" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="D40" s="26" t="s">
-        <v>44</v>
+        <v>32</v>
+      </c>
+      <c r="D40" s="37" t="s">
+        <v>126</v>
       </c>
       <c r="F40" s="26" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H40" s="26" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.2">
@@ -1736,24 +1780,24 @@
     <row r="42" spans="1:9" s="26" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A42" s="25"/>
       <c r="D42" s="37" t="s">
-        <v>68</v>
+        <v>127</v>
       </c>
       <c r="F42" s="27" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" spans="1:9" s="26" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A43" s="25"/>
       <c r="D43" s="37"/>
       <c r="F43" s="27" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:9" s="26" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A44" s="25"/>
       <c r="D44" s="37"/>
       <c r="F44" s="27" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.2">
@@ -1771,148 +1815,136 @@
     </row>
     <row r="48" spans="1:9" s="29" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A48" s="28" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D48" s="30" t="s">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="F48" s="30" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="H48" s="38" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="I48" s="38"/>
     </row>
     <row r="49" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="31"/>
     </row>
-    <row r="50" spans="1:9" s="29" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" s="29" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A50" s="28"/>
       <c r="D50" s="30" t="s">
-        <v>49</v>
+        <v>129</v>
       </c>
       <c r="F50" s="30" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="H50" s="30" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="3"/>
-    </row>
-    <row r="52" spans="1:9" s="29" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A52" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="F52" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="H52" s="38" t="s">
-        <v>77</v>
-      </c>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="28"/>
+      <c r="D51" s="30"/>
+      <c r="F51" s="30"/>
+      <c r="H51" s="30"/>
+    </row>
+    <row r="52" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="28"/>
+      <c r="D52" s="30"/>
+      <c r="F52" s="30"/>
+      <c r="H52" s="30"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
     </row>
-    <row r="54" spans="1:9" s="33" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A54" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="D54" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="F54" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="H54" s="40" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="32"/>
-    </row>
-    <row r="56" spans="1:9" s="33" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" s="29" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A54" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="F54" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="H54" s="38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="3"/>
+    </row>
+    <row r="56" spans="1:9" s="33" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A56" s="32" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="D56" s="34" t="s">
-        <v>55</v>
+        <v>132</v>
       </c>
       <c r="F56" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="H56" s="34" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" s="33" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+      <c r="H56" s="40" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="32"/>
-      <c r="E57" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="G57" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="I57" s="34" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="32"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="3" t="s">
-        <v>62</v>
-      </c>
+    </row>
+    <row r="58" spans="1:9" s="33" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A58" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="D58" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="F58" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="H58" s="34" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" s="33" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A59" s="32"/>
+      <c r="E59" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="G59" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="I59" s="34" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="32"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" s="3"/>
+      <c r="A64" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A65"/>
-      <c r="B65"/>
-      <c r="C65"/>
-      <c r="D65"/>
-      <c r="E65"/>
-      <c r="F65"/>
-      <c r="G65"/>
-      <c r="H65"/>
-      <c r="I65"/>
-      <c r="J65"/>
+      <c r="A65" s="3" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A66"/>
-      <c r="B66"/>
-      <c r="C66"/>
-      <c r="D66"/>
-      <c r="E66"/>
-      <c r="F66"/>
-      <c r="G66"/>
-      <c r="H66"/>
-      <c r="I66"/>
-      <c r="J66"/>
+      <c r="A66" s="3"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67"/>
@@ -2321,6 +2353,30 @@
       <c r="H100"/>
       <c r="I100"/>
       <c r="J100"/>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A101"/>
+      <c r="B101"/>
+      <c r="C101"/>
+      <c r="D101"/>
+      <c r="E101"/>
+      <c r="F101"/>
+      <c r="G101"/>
+      <c r="H101"/>
+      <c r="I101"/>
+      <c r="J101"/>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A102"/>
+      <c r="B102"/>
+      <c r="C102"/>
+      <c r="D102"/>
+      <c r="E102"/>
+      <c r="F102"/>
+      <c r="G102"/>
+      <c r="H102"/>
+      <c r="I102"/>
+      <c r="J102"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -2337,7 +2393,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -2353,44 +2409,44 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="42" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="B2" s="42" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="C2" s="42" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="D2" s="42" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="E2" s="42" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="F2" s="42"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="42" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="C3" s="42" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="D3" s="42" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="E3" s="42" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="F3" s="42"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="42"/>
       <c r="B4" s="42" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="C4" s="42"/>
       <c r="D4" s="42"/>
@@ -2406,19 +2462,19 @@
     </row>
     <row r="6" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A6" s="43" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="D6" s="43" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="E6" s="43" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -2430,19 +2486,19 @@
     </row>
     <row r="8" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="B8" s="43" t="s">
-        <v>106</v>
-      </c>
-      <c r="C8" s="43" t="s">
-        <v>120</v>
-      </c>
       <c r="D8" s="43" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="E8" s="43" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -2453,19 +2509,19 @@
     </row>
     <row r="10" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="B10" s="43" t="s">
-        <v>107</v>
-      </c>
-      <c r="C10" s="43" t="s">
-        <v>121</v>
-      </c>
       <c r="D10" s="43" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="E10" s="43" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -2477,19 +2533,19 @@
     </row>
     <row r="12" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A12" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="B12" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="C12" s="43" t="s">
-        <v>122</v>
-      </c>
       <c r="D12" s="43" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="E12" s="43" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -2501,13 +2557,13 @@
     <row r="14" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="43" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="C14" s="43" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="D14" s="43" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="E14" s="43"/>
     </row>
@@ -2520,13 +2576,13 @@
     <row r="16" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="41" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="C16" s="43" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="D16" s="43" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="E16" s="43"/>
     </row>
@@ -2538,7 +2594,7 @@
     </row>
     <row r="18" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B18" s="41" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="C18" s="43"/>
     </row>
@@ -2576,7 +2632,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="A4:C5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2588,20 +2644,20 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="D3" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="41" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -2613,7 +2669,7 @@
     </row>
     <row r="5" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="41" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -2625,7 +2681,7 @@
     </row>
     <row r="6" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="41" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="C6">
         <v>6</v>
@@ -2637,7 +2693,7 @@
     </row>
     <row r="7" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" s="41" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="C7">
         <v>8</v>
@@ -2649,7 +2705,7 @@
     </row>
     <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A8" s="41" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="C8">
         <v>10</v>
@@ -2661,7 +2717,7 @@
     </row>
     <row r="9" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" s="41" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="C9">
         <v>12</v>
@@ -2674,4 +2730,81 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B1" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2">
+        <v>28</v>
+      </c>
+      <c r="C2">
+        <v>20</v>
+      </c>
+      <c r="D2">
+        <f>B2/C2</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3">
+        <v>33</v>
+      </c>
+      <c r="C3">
+        <v>35</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D4" si="0">B3/C3</f>
+        <v>0.94285714285714284</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4">
+        <v>40</v>
+      </c>
+      <c r="C4">
+        <v>60</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Streak 3/New Units.xlsx
+++ b/Streak 3/New Units.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="137">
   <si>
     <r>
       <t xml:space="preserve">Unit strength increases +15% per tier for </t>
@@ -90,71 +90,19 @@
     <t>Golem (ALL)</t>
   </si>
   <si>
-    <t>Golem 115 (-15%)</t>
-  </si>
-  <si>
-    <t>Greater Golem 152 (-15%)</t>
-  </si>
-  <si>
     <t>Assault (1)</t>
   </si>
   <si>
-    <t>Swordsman 132
-15% Vs Company</t>
-  </si>
-  <si>
-    <t>Men at Arms 175
-15% Vs Company</t>
-  </si>
-  <si>
     <t>Ranged (2)</t>
   </si>
   <si>
-    <t>Longbowman 132
-15% Vs Assault</t>
-  </si>
-  <si>
-    <t>Arquebus 175
-15% Vs Assault</t>
-  </si>
-  <si>
     <t>Company (3)</t>
   </si>
   <si>
-    <t>Spearman 132
-15% Vs Ranged</t>
-  </si>
-  <si>
-    <t>Pikeman 175
-15% Vs Ranged</t>
-  </si>
-  <si>
     <t>Melee</t>
   </si>
   <si>
-    <t>Highlander 120
-Move Impassable Terrain
-10% Peak/Hill Strength</t>
-  </si>
-  <si>
-    <t>Flagbearer 120
-Ability: +5% Strength to Stack</t>
-  </si>
-  <si>
     <t>Mounted (4)</t>
-  </si>
-  <si>
-    <t>Knight 126 (-5%)
-2 Moves
-10% Withdraw
-No Def Bonus</t>
-  </si>
-  <si>
-    <t>Lancer 167 (-5%)
-2 Moves
-Blitz
-10% Withdraw
-No Def Bonus</t>
   </si>
   <si>
     <t>Elephant (4)</t>
@@ -540,10 +488,6 @@
 Imperial</t>
   </si>
   <si>
-    <t>Warrior 76
-20H</t>
-  </si>
-  <si>
     <t>Warrior</t>
   </si>
   <si>
@@ -560,12 +504,6 @@
   </si>
   <si>
     <t>Strength</t>
-  </si>
-  <si>
-    <t>Scout 46
-2 Moves
-Ignore Terrain Cost
-20H</t>
   </si>
   <si>
     <t>Axeman 100
@@ -590,28 +528,7 @@
 60H</t>
   </si>
   <si>
-    <t>Hunter 91 (-10%)
-See Invis
-Carry Hawk
-50H</t>
-  </si>
-  <si>
-    <t>Lesser Golem 87 (-15%)
-34H</t>
-  </si>
-  <si>
-    <t>Bandit 91
-Pillage x2
-15% Forest/Jungle Strength
-48H</t>
-  </si>
-  <si>
     <t>50H</t>
-  </si>
-  <si>
-    <t>Ranger 91
-Move Impassable Terrain
-45H</t>
   </si>
   <si>
     <t>Adept 76
@@ -627,20 +544,6 @@
 </t>
   </si>
   <si>
-    <t>Baby Spider 91
-Invisible
-No Def
-No Pillage
-No Happy
-48H</t>
-  </si>
-  <si>
-    <t>Drown 95
-Water Walking
-No Happy
-55H</t>
-  </si>
-  <si>
     <t xml:space="preserve">Trireme 100
 Ocean Def Bonus?
 No Ocean
@@ -649,14 +552,6 @@
 </t>
   </si>
   <si>
-    <t>Galley 91
-Capacity: 2
-Ocean Def Bonus?
-No Ocean
-No Happy
-48H</t>
-  </si>
-  <si>
     <t>Battering Ram 10
 Bombard 10%
 No Attack
@@ -665,17 +560,146 @@
 20H</t>
   </si>
   <si>
+    <t>Percent Cost Inc per 15%</t>
+  </si>
+  <si>
+    <t>Rounded</t>
+  </si>
+  <si>
+    <t>Strength Increment</t>
+  </si>
+  <si>
+    <t>Lesser Golem 86 (-15%)
+44H</t>
+  </si>
+  <si>
+    <t>Golem 116 (-15%)
+82H</t>
+  </si>
+  <si>
+    <t>Swordsman 134
+15% Vs Company
+112H</t>
+  </si>
+  <si>
+    <t>Longbowman 134
+15% Vs Assault
+112H</t>
+  </si>
+  <si>
+    <t>Spearman 134
+15% Vs Ranged
+112H</t>
+  </si>
+  <si>
+    <t>Warrior 75
+32H</t>
+  </si>
+  <si>
+    <t>Greater Golem 155 (-15%)
+153H</t>
+  </si>
+  <si>
+    <t>Men at Arms 180
+15% Vs Company
+210H</t>
+  </si>
+  <si>
+    <t>Arquebus 180
+15% Vs Assault
+210H</t>
+  </si>
+  <si>
+    <t>Pikeman 180
+15% Vs Ranged
+210H</t>
+  </si>
+  <si>
+    <t>Bandit 91
+Pillage x2
+15% Forest/Jungle Strength
+54H</t>
+  </si>
+  <si>
+    <t>Hunter 91 (-10%)
+See Invis
+Carry Hawk
+57H</t>
+  </si>
+  <si>
+    <t>Scout 46
+2 Moves
+Ignore Terrain Cost
+32H</t>
+  </si>
+  <si>
+    <t>Ranger 91
+Move Impassable Terrain
+52H</t>
+  </si>
+  <si>
+    <t>Baby Spider 91
+Invisible
+No Def
+No Pillage
+No Happy
+53H</t>
+  </si>
+  <si>
+    <t>Drown 95
+Water Walking
+No Happy
+58H</t>
+  </si>
+  <si>
+    <t>Galley 91
+Capacity: 2
+Ocean Def Bonus?
+No Ocean
+No Happy
+52H</t>
+  </si>
+  <si>
     <t>Elephant 120 – Limit 3
 2 Moves
 Uses 2 Stack Capacity
 No Def Bonus
-108H</t>
+86H</t>
+  </si>
+  <si>
+    <t>Knight 128 (-5%)
+2 Moves
+10% Withdraw
+No Def Bonus
+112H</t>
+  </si>
+  <si>
+    <t>Lancer 171 (-5%)
+2 Moves
+Blitz
+10% Withdraw
+No Def Bonus
+210H</t>
+  </si>
+  <si>
+    <t>Highlander 122 (-10%)
+Move Impassable Terrain
+10% Peak/Hill Strength
+105H</t>
+  </si>
+  <si>
+    <t>Flagbearer 122 (-10%)
+Ability: +5% Strength to Stack
+120H</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -732,7 +756,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -781,6 +805,12 @@
         <bgColor indexed="29"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -794,7 +824,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -925,6 +955,18 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1380,10 +1422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J102"/>
+  <dimension ref="A1:J135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1418,929 +1460,1137 @@
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="A4" s="2"/>
+      <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D4" s="45">
+        <v>0.33</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3">
+        <v>33</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
+      <c r="A5" s="2"/>
       <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" s="45">
+        <v>0.05</v>
+      </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="str">
+        <f>"Percent Cost Inc per "&amp;(D5*100)&amp;"%"</f>
+        <v>Percent Cost Inc per 5%</v>
+      </c>
+      <c r="D6" s="46">
+        <f>D4/(3)</f>
+        <v>0.11</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3">
+        <f t="shared" ref="B9:B13" si="0">B10/(1+$D$5)</f>
+        <v>74.621539663662745</v>
+      </c>
+      <c r="C9" s="3">
+        <f t="shared" ref="C9:C13" si="1">C10/(1+$D$6)</f>
+        <v>32.078450165327482</v>
+      </c>
+      <c r="D9" s="47">
+        <f t="shared" ref="D9:D27" si="2">ROUND(B9,0)</f>
+        <v>75</v>
+      </c>
+      <c r="E9" s="48">
+        <f t="shared" ref="E9:E27" si="3">ROUND(C9,0)</f>
+        <v>32</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3">
+        <f t="shared" si="0"/>
+        <v>78.352616646845888</v>
+      </c>
+      <c r="C10" s="3">
+        <f t="shared" si="1"/>
+        <v>35.607079683513511</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="E10" s="3">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3">
+        <f t="shared" si="0"/>
+        <v>82.270247479188185</v>
+      </c>
+      <c r="C11" s="3">
+        <f t="shared" si="1"/>
+        <v>39.523858448700004</v>
+      </c>
+      <c r="D11" s="15">
+        <f t="shared" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="E11" s="31">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3">
+        <f t="shared" si="0"/>
+        <v>86.383759853147595</v>
+      </c>
+      <c r="C12" s="3">
+        <f t="shared" si="1"/>
+        <v>43.871482878057009</v>
+      </c>
+      <c r="D12" s="47">
+        <f t="shared" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="E12" s="48">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3">
+        <f t="shared" si="0"/>
+        <v>90.702947845804985</v>
+      </c>
+      <c r="C13" s="3">
+        <f t="shared" si="1"/>
+        <v>48.697345994643285</v>
+      </c>
+      <c r="D13" s="15">
+        <f t="shared" si="2"/>
+        <v>91</v>
+      </c>
+      <c r="E13" s="31">
+        <f t="shared" si="3"/>
+        <v>49</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3">
+        <f>B15/(1+$D$5)</f>
+        <v>95.238095238095241</v>
+      </c>
+      <c r="C14" s="3">
+        <f>C15/(1+$D$6)</f>
+        <v>54.054054054054049</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="E14" s="3">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3">
+        <v>100</v>
+      </c>
+      <c r="C15" s="3">
+        <v>60</v>
+      </c>
+      <c r="D15" s="47">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="E15" s="48">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3">
+        <f>B15*(1+$D$5)</f>
+        <v>105</v>
+      </c>
+      <c r="C16" s="3">
+        <f>C15*(1+$D$6)</f>
+        <v>66.600000000000009</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="2"/>
+        <v>105</v>
+      </c>
+      <c r="E16" s="3">
+        <f t="shared" si="3"/>
+        <v>67</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3">
+        <f t="shared" ref="B17:B26" si="4">B16*(1+$D$5)</f>
+        <v>110.25</v>
+      </c>
+      <c r="C17" s="3">
+        <f t="shared" ref="C17:C27" si="5">C16*(1+$D$6)</f>
+        <v>73.926000000000016</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="2"/>
+        <v>110</v>
+      </c>
+      <c r="E17" s="3">
+        <f t="shared" si="3"/>
+        <v>74</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3">
+        <f t="shared" si="4"/>
+        <v>115.7625</v>
+      </c>
+      <c r="C18" s="3">
+        <f t="shared" si="5"/>
+        <v>82.057860000000019</v>
+      </c>
+      <c r="D18" s="47">
+        <f t="shared" si="2"/>
+        <v>116</v>
+      </c>
+      <c r="E18" s="48">
+        <f t="shared" si="3"/>
+        <v>82</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3">
+        <f t="shared" si="4"/>
+        <v>121.55062500000001</v>
+      </c>
+      <c r="C19" s="3">
+        <f t="shared" si="5"/>
+        <v>91.084224600000027</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="2"/>
+        <v>122</v>
+      </c>
+      <c r="E19" s="3">
+        <f t="shared" si="3"/>
+        <v>91</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="2"/>
+      <c r="B20" s="3">
+        <f t="shared" si="4"/>
+        <v>127.62815625000002</v>
+      </c>
+      <c r="C20" s="3">
+        <f t="shared" si="5"/>
+        <v>101.10348930600004</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" si="2"/>
+        <v>128</v>
+      </c>
+      <c r="E20" s="3">
+        <f t="shared" si="3"/>
+        <v>101</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3">
+        <f t="shared" si="4"/>
+        <v>134.00956406250003</v>
+      </c>
+      <c r="C21" s="3">
+        <f t="shared" si="5"/>
+        <v>112.22487312966005</v>
+      </c>
+      <c r="D21" s="47">
+        <f t="shared" si="2"/>
+        <v>134</v>
+      </c>
+      <c r="E21" s="48">
+        <f t="shared" si="3"/>
+        <v>112</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3">
+        <f t="shared" si="4"/>
+        <v>140.71004226562505</v>
+      </c>
+      <c r="C22" s="3">
+        <f t="shared" si="5"/>
+        <v>124.56960917392267</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" si="2"/>
+        <v>141</v>
+      </c>
+      <c r="E22" s="3">
+        <f t="shared" si="3"/>
+        <v>125</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3">
+        <f t="shared" si="4"/>
+        <v>147.74554437890632</v>
+      </c>
+      <c r="C23" s="3">
+        <f t="shared" si="5"/>
+        <v>138.27226618305417</v>
+      </c>
+      <c r="D23" s="1">
+        <f t="shared" si="2"/>
+        <v>148</v>
+      </c>
+      <c r="E23" s="3">
+        <f t="shared" si="3"/>
+        <v>138</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="3">
+        <f t="shared" si="4"/>
+        <v>155.13282159785163</v>
+      </c>
+      <c r="C24" s="3">
+        <f t="shared" si="5"/>
+        <v>153.48221546319013</v>
+      </c>
+      <c r="D24" s="47">
+        <f t="shared" si="2"/>
+        <v>155</v>
+      </c>
+      <c r="E24" s="48">
+        <f t="shared" si="3"/>
+        <v>153</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="2"/>
+      <c r="B25" s="3">
+        <f>B24*(1+$D$5)</f>
+        <v>162.88946267774421</v>
+      </c>
+      <c r="C25" s="3">
+        <f t="shared" si="5"/>
+        <v>170.36525916414107</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" si="2"/>
+        <v>163</v>
+      </c>
+      <c r="E25" s="3">
+        <f t="shared" si="3"/>
+        <v>170</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="2"/>
+      <c r="B26" s="3">
+        <f t="shared" si="4"/>
+        <v>171.03393581163144</v>
+      </c>
+      <c r="C26" s="3">
+        <f t="shared" si="5"/>
+        <v>189.10543767219659</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" si="2"/>
+        <v>171</v>
+      </c>
+      <c r="E26" s="3">
+        <f t="shared" si="3"/>
+        <v>189</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
+      <c r="B27" s="3">
+        <f>B26*(1+$D$5)</f>
+        <v>179.58563260221302</v>
+      </c>
+      <c r="C27" s="3">
+        <f t="shared" si="5"/>
+        <v>209.90703581613823</v>
+      </c>
+      <c r="D27" s="47">
+        <f t="shared" si="2"/>
+        <v>180</v>
+      </c>
+      <c r="E27" s="48">
+        <f t="shared" si="3"/>
+        <v>210</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="2"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="2"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="2"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="2"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="2"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="2"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B35" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I35" s="3"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+    </row>
+    <row r="38" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" s="5" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-    </row>
-    <row r="10" spans="1:9" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-    </row>
-    <row r="12" spans="1:9" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="14"/>
-    </row>
-    <row r="14" spans="1:9" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="44" t="s">
-        <v>109</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14" s="35" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="14"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="15"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="15"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-    </row>
-    <row r="17" spans="1:9" s="18" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H17" s="19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="17"/>
-      <c r="D18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-    </row>
-    <row r="19" spans="1:9" s="18" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A19" s="17"/>
-      <c r="D19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="H19" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="I19" s="19"/>
-    </row>
-    <row r="20" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="17"/>
-      <c r="D20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-    </row>
-    <row r="21" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="17"/>
-      <c r="D21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-    </row>
-    <row r="22" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="17"/>
-      <c r="D22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-    </row>
-    <row r="23" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="17"/>
-      <c r="D23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-    </row>
-    <row r="24" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="17"/>
-      <c r="D24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-    </row>
-    <row r="25" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="17"/>
-    </row>
-    <row r="26" spans="1:9" s="18" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="G26" s="19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="3"/>
-    </row>
-    <row r="28" spans="1:9" s="5" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="23" t="s">
+      <c r="C38" s="5"/>
+      <c r="D38" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="E38" s="7"/>
+      <c r="F38" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="C28"/>
-      <c r="D28" s="9" t="s">
+      <c r="H38" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="F28" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I28" s="9"/>
-    </row>
-    <row r="29" spans="1:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="22"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H29" s="36"/>
-    </row>
-    <row r="30" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="22"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="H30" s="36"/>
-    </row>
-    <row r="31" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="22"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="9"/>
-      <c r="H31" s="36"/>
-    </row>
-    <row r="32" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="22"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="9"/>
-      <c r="H32" s="36"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="3"/>
-    </row>
-    <row r="34" spans="1:9" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H34" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="I34" s="9"/>
-    </row>
-    <row r="35" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="24"/>
-      <c r="D35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="9"/>
-    </row>
-    <row r="36" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="24"/>
-      <c r="D36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="I36" s="9"/>
-    </row>
-    <row r="37" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="24"/>
-      <c r="D37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="9"/>
-    </row>
-    <row r="38" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="24"/>
-      <c r="D38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="9"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
     </row>
-    <row r="40" spans="1:9" s="26" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="25" t="s">
+    <row r="40" spans="1:9" s="5" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A40" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="I40" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="3"/>
+    </row>
+    <row r="42" spans="1:9" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A42" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="I42" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="3"/>
+    </row>
+    <row r="44" spans="1:9" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A44" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="G44" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="I44" s="13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="14"/>
+    </row>
+    <row r="46" spans="1:9" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A46" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" s="15"/>
+      <c r="C46" s="44" t="s">
+        <v>120</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="F46" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="H46" s="35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A47" s="14"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="G47" s="15"/>
+      <c r="H47" s="35"/>
+      <c r="I47" s="15"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="3"/>
+    </row>
+    <row r="49" spans="1:9" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A49" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="F49" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="H49" s="19" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="17"/>
+      <c r="D50" s="19"/>
+      <c r="F50" s="19"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
+    </row>
+    <row r="51" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="17"/>
+      <c r="D51" s="19"/>
+      <c r="F51" s="19"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+    </row>
+    <row r="52" spans="1:9" s="18" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A52" s="17"/>
+      <c r="D52" s="19"/>
+      <c r="F52" s="19"/>
+      <c r="H52" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" s="19"/>
+    </row>
+    <row r="53" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="17"/>
+      <c r="D53" s="19"/>
+      <c r="F53" s="19"/>
+      <c r="H53" s="19"/>
+      <c r="I53" s="19"/>
+    </row>
+    <row r="54" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="17"/>
+      <c r="D54" s="19"/>
+      <c r="F54" s="19"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="19"/>
+    </row>
+    <row r="55" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="17"/>
+      <c r="D55" s="19"/>
+      <c r="F55" s="19"/>
+      <c r="H55" s="19"/>
+      <c r="I55" s="19"/>
+    </row>
+    <row r="56" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="17"/>
+      <c r="D56" s="19"/>
+      <c r="F56" s="19"/>
+      <c r="H56" s="19"/>
+      <c r="I56" s="19"/>
+    </row>
+    <row r="57" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="17"/>
+      <c r="D57" s="19"/>
+      <c r="F57" s="19"/>
+      <c r="H57" s="19"/>
+      <c r="I57" s="19"/>
+    </row>
+    <row r="58" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="17"/>
+    </row>
+    <row r="59" spans="1:9" s="18" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A59" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E59" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="G59" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" s="3"/>
+    </row>
+    <row r="61" spans="1:9" s="5" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A61" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B61" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="C61"/>
+      <c r="D61" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I61" s="9"/>
+    </row>
+    <row r="62" spans="1:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A62" s="22"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H62" s="36"/>
+    </row>
+    <row r="63" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="22"/>
+      <c r="B63" s="15"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="H63" s="36"/>
+    </row>
+    <row r="64" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="22"/>
+      <c r="B64" s="15"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="9"/>
+      <c r="H64" s="36"/>
+    </row>
+    <row r="65" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="22"/>
+      <c r="B65" s="15"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="9"/>
+      <c r="H65" s="36"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" s="3"/>
+    </row>
+    <row r="67" spans="1:9" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A67" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="F67" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H67" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="I67" s="9"/>
+    </row>
+    <row r="68" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="24"/>
+      <c r="D68" s="11"/>
+      <c r="F68" s="11"/>
+      <c r="H68" s="11"/>
+      <c r="I68" s="9"/>
+    </row>
+    <row r="69" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="24"/>
+      <c r="D69" s="11"/>
+      <c r="F69" s="11"/>
+      <c r="I69" s="9"/>
+    </row>
+    <row r="70" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="24"/>
+      <c r="D70" s="11"/>
+      <c r="F70" s="11"/>
+      <c r="H70" s="11"/>
+      <c r="I70" s="9"/>
+    </row>
+    <row r="71" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="24"/>
+      <c r="D71" s="11"/>
+      <c r="F71" s="11"/>
+      <c r="H71" s="11"/>
+      <c r="I71" s="9"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72" s="3"/>
+    </row>
+    <row r="73" spans="1:9" s="26" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A73" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D73" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="F73" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="H73" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="I73" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="25"/>
+    </row>
+    <row r="75" spans="1:9" s="26" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A75" s="25"/>
+      <c r="D75" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="F75" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" s="26" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="A76" s="25"/>
+      <c r="D76" s="37"/>
+      <c r="F76" s="27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" s="26" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A77" s="25"/>
+      <c r="D77" s="37"/>
+      <c r="F77" s="27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="25"/>
+      <c r="D78" s="37"/>
+      <c r="F78" s="27"/>
+    </row>
+    <row r="79" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="25"/>
+      <c r="D79" s="37"/>
+      <c r="F79" s="27"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A80" s="3"/>
+    </row>
+    <row r="81" spans="1:9" s="29" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A81" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D81" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="F81" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="H81" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I81" s="38"/>
+    </row>
+    <row r="82" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="31"/>
+    </row>
+    <row r="83" spans="1:9" s="29" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A83" s="28"/>
+      <c r="D83" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="F83" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="H83" s="30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="28"/>
+      <c r="D84" s="30"/>
+      <c r="F84" s="30"/>
+      <c r="H84" s="30"/>
+    </row>
+    <row r="85" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="28"/>
+      <c r="D85" s="30"/>
+      <c r="F85" s="30"/>
+      <c r="H85" s="30"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86" s="3"/>
+    </row>
+    <row r="87" spans="1:9" s="29" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A87" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="F87" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="H87" s="38" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A88" s="3"/>
+    </row>
+    <row r="89" spans="1:9" s="33" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A89" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D89" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="F89" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="H89" s="40" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="32"/>
+    </row>
+    <row r="91" spans="1:9" s="33" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A91" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="D91" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="F91" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="H91" s="34" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" s="33" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A92" s="32"/>
+      <c r="E92" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="G92" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="D40" s="37" t="s">
-        <v>126</v>
-      </c>
-      <c r="F40" s="26" t="s">
+      <c r="I92" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="H40" s="26" t="s">
+    </row>
+    <row r="93" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="32"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A94" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I40" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="25"/>
-    </row>
-    <row r="42" spans="1:9" s="26" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A42" s="25"/>
-      <c r="D42" s="37" t="s">
-        <v>127</v>
-      </c>
-      <c r="F42" s="27" t="s">
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A95" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:9" s="26" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
-      <c r="A43" s="25"/>
-      <c r="D43" s="37"/>
-      <c r="F43" s="27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" s="26" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="25"/>
-      <c r="D44" s="37"/>
-      <c r="F44" s="27" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="25"/>
-      <c r="D45" s="37"/>
-      <c r="F45" s="27"/>
-    </row>
-    <row r="46" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="25"/>
-      <c r="D46" s="37"/>
-      <c r="F46" s="27"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="3"/>
-    </row>
-    <row r="48" spans="1:9" s="29" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A48" s="28" t="s">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A96" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D48" s="30" t="s">
-        <v>128</v>
-      </c>
-      <c r="F48" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="H48" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="I48" s="38"/>
-    </row>
-    <row r="49" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="31"/>
-    </row>
-    <row r="50" spans="1:9" s="29" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A50" s="28"/>
-      <c r="D50" s="30" t="s">
-        <v>129</v>
-      </c>
-      <c r="F50" s="30" t="s">
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A97" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H50" s="30" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="28"/>
-      <c r="D51" s="30"/>
-      <c r="F51" s="30"/>
-      <c r="H51" s="30"/>
-    </row>
-    <row r="52" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="28"/>
-      <c r="D52" s="30"/>
-      <c r="F52" s="30"/>
-      <c r="H52" s="30"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="3"/>
-    </row>
-    <row r="54" spans="1:9" s="29" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A54" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="F54" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="H54" s="38" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="3"/>
-    </row>
-    <row r="56" spans="1:9" s="33" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A56" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="D56" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="F56" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="H56" s="40" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="32"/>
-    </row>
-    <row r="58" spans="1:9" s="33" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A58" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="D58" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="F58" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="H58" s="34" t="s">
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A98" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="59" spans="1:9" s="33" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A59" s="32"/>
-      <c r="E59" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="G59" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="I59" s="34" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="32"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A65" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A66" s="3"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A67"/>
-      <c r="B67"/>
-      <c r="C67"/>
-      <c r="D67"/>
-      <c r="E67"/>
-      <c r="F67"/>
-      <c r="G67"/>
-      <c r="H67"/>
-      <c r="I67"/>
-      <c r="J67"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A68"/>
-      <c r="B68"/>
-      <c r="C68"/>
-      <c r="D68"/>
-      <c r="E68"/>
-      <c r="F68"/>
-      <c r="G68"/>
-      <c r="H68"/>
-      <c r="I68"/>
-      <c r="J68"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A69"/>
-      <c r="B69"/>
-      <c r="C69"/>
-      <c r="D69"/>
-      <c r="E69"/>
-      <c r="F69"/>
-      <c r="G69"/>
-      <c r="H69"/>
-      <c r="I69"/>
-      <c r="J69"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A70"/>
-      <c r="B70"/>
-      <c r="C70"/>
-      <c r="D70"/>
-      <c r="E70"/>
-      <c r="F70"/>
-      <c r="G70"/>
-      <c r="H70"/>
-      <c r="I70"/>
-      <c r="J70"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A71"/>
-      <c r="B71"/>
-      <c r="C71"/>
-      <c r="D71"/>
-      <c r="E71"/>
-      <c r="F71"/>
-      <c r="G71"/>
-      <c r="H71"/>
-      <c r="I71"/>
-      <c r="J71"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A72"/>
-      <c r="B72"/>
-      <c r="C72"/>
-      <c r="D72"/>
-      <c r="E72"/>
-      <c r="F72"/>
-      <c r="G72"/>
-      <c r="H72"/>
-      <c r="I72"/>
-      <c r="J72"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A73"/>
-      <c r="B73"/>
-      <c r="C73"/>
-      <c r="D73"/>
-      <c r="E73"/>
-      <c r="F73"/>
-      <c r="G73"/>
-      <c r="H73"/>
-      <c r="I73"/>
-      <c r="J73"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A74"/>
-      <c r="B74"/>
-      <c r="C74"/>
-      <c r="D74"/>
-      <c r="E74"/>
-      <c r="F74"/>
-      <c r="G74"/>
-      <c r="H74"/>
-      <c r="I74"/>
-      <c r="J74"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A75"/>
-      <c r="B75"/>
-      <c r="C75"/>
-      <c r="D75"/>
-      <c r="E75"/>
-      <c r="F75"/>
-      <c r="G75"/>
-      <c r="H75"/>
-      <c r="I75"/>
-      <c r="J75"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A76"/>
-      <c r="B76"/>
-      <c r="C76"/>
-      <c r="D76"/>
-      <c r="E76"/>
-      <c r="F76"/>
-      <c r="G76"/>
-      <c r="H76"/>
-      <c r="I76"/>
-      <c r="J76"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A77"/>
-      <c r="B77"/>
-      <c r="C77"/>
-      <c r="D77"/>
-      <c r="E77"/>
-      <c r="F77"/>
-      <c r="G77"/>
-      <c r="H77"/>
-      <c r="I77"/>
-      <c r="J77"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A78"/>
-      <c r="B78"/>
-      <c r="C78"/>
-      <c r="D78"/>
-      <c r="E78"/>
-      <c r="F78"/>
-      <c r="G78"/>
-      <c r="H78"/>
-      <c r="I78"/>
-      <c r="J78"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A79"/>
-      <c r="B79"/>
-      <c r="C79"/>
-      <c r="D79"/>
-      <c r="E79"/>
-      <c r="F79"/>
-      <c r="G79"/>
-      <c r="H79"/>
-      <c r="I79"/>
-      <c r="J79"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A80"/>
-      <c r="B80"/>
-      <c r="C80"/>
-      <c r="D80"/>
-      <c r="E80"/>
-      <c r="F80"/>
-      <c r="G80"/>
-      <c r="H80"/>
-      <c r="I80"/>
-      <c r="J80"/>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A81"/>
-      <c r="B81"/>
-      <c r="C81"/>
-      <c r="D81"/>
-      <c r="E81"/>
-      <c r="F81"/>
-      <c r="G81"/>
-      <c r="H81"/>
-      <c r="I81"/>
-      <c r="J81"/>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A82"/>
-      <c r="B82"/>
-      <c r="C82"/>
-      <c r="D82"/>
-      <c r="E82"/>
-      <c r="F82"/>
-      <c r="G82"/>
-      <c r="H82"/>
-      <c r="I82"/>
-      <c r="J82"/>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A83"/>
-      <c r="B83"/>
-      <c r="C83"/>
-      <c r="D83"/>
-      <c r="E83"/>
-      <c r="F83"/>
-      <c r="G83"/>
-      <c r="H83"/>
-      <c r="I83"/>
-      <c r="J83"/>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A84"/>
-      <c r="B84"/>
-      <c r="C84"/>
-      <c r="D84"/>
-      <c r="E84"/>
-      <c r="F84"/>
-      <c r="G84"/>
-      <c r="H84"/>
-      <c r="I84"/>
-      <c r="J84"/>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A85"/>
-      <c r="B85"/>
-      <c r="C85"/>
-      <c r="D85"/>
-      <c r="E85"/>
-      <c r="F85"/>
-      <c r="G85"/>
-      <c r="H85"/>
-      <c r="I85"/>
-      <c r="J85"/>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A86"/>
-      <c r="B86"/>
-      <c r="C86"/>
-      <c r="D86"/>
-      <c r="E86"/>
-      <c r="F86"/>
-      <c r="G86"/>
-      <c r="H86"/>
-      <c r="I86"/>
-      <c r="J86"/>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A87"/>
-      <c r="B87"/>
-      <c r="C87"/>
-      <c r="D87"/>
-      <c r="E87"/>
-      <c r="F87"/>
-      <c r="G87"/>
-      <c r="H87"/>
-      <c r="I87"/>
-      <c r="J87"/>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A88"/>
-      <c r="B88"/>
-      <c r="C88"/>
-      <c r="D88"/>
-      <c r="E88"/>
-      <c r="F88"/>
-      <c r="G88"/>
-      <c r="H88"/>
-      <c r="I88"/>
-      <c r="J88"/>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A89"/>
-      <c r="B89"/>
-      <c r="C89"/>
-      <c r="D89"/>
-      <c r="E89"/>
-      <c r="F89"/>
-      <c r="G89"/>
-      <c r="H89"/>
-      <c r="I89"/>
-      <c r="J89"/>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A90"/>
-      <c r="B90"/>
-      <c r="C90"/>
-      <c r="D90"/>
-      <c r="E90"/>
-      <c r="F90"/>
-      <c r="G90"/>
-      <c r="H90"/>
-      <c r="I90"/>
-      <c r="J90"/>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A91"/>
-      <c r="B91"/>
-      <c r="C91"/>
-      <c r="D91"/>
-      <c r="E91"/>
-      <c r="F91"/>
-      <c r="G91"/>
-      <c r="H91"/>
-      <c r="I91"/>
-      <c r="J91"/>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A92"/>
-      <c r="B92"/>
-      <c r="C92"/>
-      <c r="D92"/>
-      <c r="E92"/>
-      <c r="F92"/>
-      <c r="G92"/>
-      <c r="H92"/>
-      <c r="I92"/>
-      <c r="J92"/>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A93"/>
-      <c r="B93"/>
-      <c r="C93"/>
-      <c r="D93"/>
-      <c r="E93"/>
-      <c r="F93"/>
-      <c r="G93"/>
-      <c r="H93"/>
-      <c r="I93"/>
-      <c r="J93"/>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A94"/>
-      <c r="B94"/>
-      <c r="C94"/>
-      <c r="D94"/>
-      <c r="E94"/>
-      <c r="F94"/>
-      <c r="G94"/>
-      <c r="H94"/>
-      <c r="I94"/>
-      <c r="J94"/>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A95"/>
-      <c r="B95"/>
-      <c r="C95"/>
-      <c r="D95"/>
-      <c r="E95"/>
-      <c r="F95"/>
-      <c r="G95"/>
-      <c r="H95"/>
-      <c r="I95"/>
-      <c r="J95"/>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A96"/>
-      <c r="B96"/>
-      <c r="C96"/>
-      <c r="D96"/>
-      <c r="E96"/>
-      <c r="F96"/>
-      <c r="G96"/>
-      <c r="H96"/>
-      <c r="I96"/>
-      <c r="J96"/>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A97"/>
-      <c r="B97"/>
-      <c r="C97"/>
-      <c r="D97"/>
-      <c r="E97"/>
-      <c r="F97"/>
-      <c r="G97"/>
-      <c r="H97"/>
-      <c r="I97"/>
-      <c r="J97"/>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A98"/>
-      <c r="B98"/>
-      <c r="C98"/>
-      <c r="D98"/>
-      <c r="E98"/>
-      <c r="F98"/>
-      <c r="G98"/>
-      <c r="H98"/>
-      <c r="I98"/>
-      <c r="J98"/>
-    </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A99"/>
-      <c r="B99"/>
-      <c r="C99"/>
-      <c r="D99"/>
-      <c r="E99"/>
-      <c r="F99"/>
-      <c r="G99"/>
-      <c r="H99"/>
-      <c r="I99"/>
-      <c r="J99"/>
+      <c r="A99" s="3"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100"/>
@@ -2377,6 +2627,402 @@
       <c r="H102"/>
       <c r="I102"/>
       <c r="J102"/>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A103"/>
+      <c r="B103"/>
+      <c r="C103"/>
+      <c r="D103"/>
+      <c r="E103"/>
+      <c r="F103"/>
+      <c r="G103"/>
+      <c r="H103"/>
+      <c r="I103"/>
+      <c r="J103"/>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A104"/>
+      <c r="B104"/>
+      <c r="C104"/>
+      <c r="D104"/>
+      <c r="E104"/>
+      <c r="F104"/>
+      <c r="G104"/>
+      <c r="H104"/>
+      <c r="I104"/>
+      <c r="J104"/>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A105"/>
+      <c r="B105"/>
+      <c r="C105"/>
+      <c r="D105"/>
+      <c r="E105"/>
+      <c r="F105"/>
+      <c r="G105"/>
+      <c r="H105"/>
+      <c r="I105"/>
+      <c r="J105"/>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A106"/>
+      <c r="B106"/>
+      <c r="C106"/>
+      <c r="D106"/>
+      <c r="E106"/>
+      <c r="F106"/>
+      <c r="G106"/>
+      <c r="H106"/>
+      <c r="I106"/>
+      <c r="J106"/>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A107"/>
+      <c r="B107"/>
+      <c r="C107"/>
+      <c r="D107"/>
+      <c r="E107"/>
+      <c r="F107"/>
+      <c r="G107"/>
+      <c r="H107"/>
+      <c r="I107"/>
+      <c r="J107"/>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A108"/>
+      <c r="B108"/>
+      <c r="C108"/>
+      <c r="D108"/>
+      <c r="E108"/>
+      <c r="F108"/>
+      <c r="G108"/>
+      <c r="H108"/>
+      <c r="I108"/>
+      <c r="J108"/>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A109"/>
+      <c r="B109"/>
+      <c r="C109"/>
+      <c r="D109"/>
+      <c r="E109"/>
+      <c r="F109"/>
+      <c r="G109"/>
+      <c r="H109"/>
+      <c r="I109"/>
+      <c r="J109"/>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A110"/>
+      <c r="B110"/>
+      <c r="C110"/>
+      <c r="D110"/>
+      <c r="E110"/>
+      <c r="F110"/>
+      <c r="G110"/>
+      <c r="H110"/>
+      <c r="I110"/>
+      <c r="J110"/>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A111"/>
+      <c r="B111"/>
+      <c r="C111"/>
+      <c r="D111"/>
+      <c r="E111"/>
+      <c r="F111"/>
+      <c r="G111"/>
+      <c r="H111"/>
+      <c r="I111"/>
+      <c r="J111"/>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A112"/>
+      <c r="B112"/>
+      <c r="C112"/>
+      <c r="D112"/>
+      <c r="E112"/>
+      <c r="F112"/>
+      <c r="G112"/>
+      <c r="H112"/>
+      <c r="I112"/>
+      <c r="J112"/>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A113"/>
+      <c r="B113"/>
+      <c r="C113"/>
+      <c r="D113"/>
+      <c r="E113"/>
+      <c r="F113"/>
+      <c r="G113"/>
+      <c r="H113"/>
+      <c r="I113"/>
+      <c r="J113"/>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A114"/>
+      <c r="B114"/>
+      <c r="C114"/>
+      <c r="D114"/>
+      <c r="E114"/>
+      <c r="F114"/>
+      <c r="G114"/>
+      <c r="H114"/>
+      <c r="I114"/>
+      <c r="J114"/>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A115"/>
+      <c r="B115"/>
+      <c r="C115"/>
+      <c r="D115"/>
+      <c r="E115"/>
+      <c r="F115"/>
+      <c r="G115"/>
+      <c r="H115"/>
+      <c r="I115"/>
+      <c r="J115"/>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A116"/>
+      <c r="B116"/>
+      <c r="C116"/>
+      <c r="D116"/>
+      <c r="E116"/>
+      <c r="F116"/>
+      <c r="G116"/>
+      <c r="H116"/>
+      <c r="I116"/>
+      <c r="J116"/>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A117"/>
+      <c r="B117"/>
+      <c r="C117"/>
+      <c r="D117"/>
+      <c r="E117"/>
+      <c r="F117"/>
+      <c r="G117"/>
+      <c r="H117"/>
+      <c r="I117"/>
+      <c r="J117"/>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A118"/>
+      <c r="B118"/>
+      <c r="C118"/>
+      <c r="D118"/>
+      <c r="E118"/>
+      <c r="F118"/>
+      <c r="G118"/>
+      <c r="H118"/>
+      <c r="I118"/>
+      <c r="J118"/>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A119"/>
+      <c r="B119"/>
+      <c r="C119"/>
+      <c r="D119"/>
+      <c r="E119"/>
+      <c r="F119"/>
+      <c r="G119"/>
+      <c r="H119"/>
+      <c r="I119"/>
+      <c r="J119"/>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A120"/>
+      <c r="B120"/>
+      <c r="C120"/>
+      <c r="D120"/>
+      <c r="E120"/>
+      <c r="F120"/>
+      <c r="G120"/>
+      <c r="H120"/>
+      <c r="I120"/>
+      <c r="J120"/>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A121"/>
+      <c r="B121"/>
+      <c r="C121"/>
+      <c r="D121"/>
+      <c r="E121"/>
+      <c r="F121"/>
+      <c r="G121"/>
+      <c r="H121"/>
+      <c r="I121"/>
+      <c r="J121"/>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A122"/>
+      <c r="B122"/>
+      <c r="C122"/>
+      <c r="D122"/>
+      <c r="E122"/>
+      <c r="F122"/>
+      <c r="G122"/>
+      <c r="H122"/>
+      <c r="I122"/>
+      <c r="J122"/>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A123"/>
+      <c r="B123"/>
+      <c r="C123"/>
+      <c r="D123"/>
+      <c r="E123"/>
+      <c r="F123"/>
+      <c r="G123"/>
+      <c r="H123"/>
+      <c r="I123"/>
+      <c r="J123"/>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A124"/>
+      <c r="B124"/>
+      <c r="C124"/>
+      <c r="D124"/>
+      <c r="E124"/>
+      <c r="F124"/>
+      <c r="G124"/>
+      <c r="H124"/>
+      <c r="I124"/>
+      <c r="J124"/>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A125"/>
+      <c r="B125"/>
+      <c r="C125"/>
+      <c r="D125"/>
+      <c r="E125"/>
+      <c r="F125"/>
+      <c r="G125"/>
+      <c r="H125"/>
+      <c r="I125"/>
+      <c r="J125"/>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A126"/>
+      <c r="B126"/>
+      <c r="C126"/>
+      <c r="D126"/>
+      <c r="E126"/>
+      <c r="F126"/>
+      <c r="G126"/>
+      <c r="H126"/>
+      <c r="I126"/>
+      <c r="J126"/>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A127"/>
+      <c r="B127"/>
+      <c r="C127"/>
+      <c r="D127"/>
+      <c r="E127"/>
+      <c r="F127"/>
+      <c r="G127"/>
+      <c r="H127"/>
+      <c r="I127"/>
+      <c r="J127"/>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A128"/>
+      <c r="B128"/>
+      <c r="C128"/>
+      <c r="D128"/>
+      <c r="E128"/>
+      <c r="F128"/>
+      <c r="G128"/>
+      <c r="H128"/>
+      <c r="I128"/>
+      <c r="J128"/>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A129"/>
+      <c r="B129"/>
+      <c r="C129"/>
+      <c r="D129"/>
+      <c r="E129"/>
+      <c r="F129"/>
+      <c r="G129"/>
+      <c r="H129"/>
+      <c r="I129"/>
+      <c r="J129"/>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A130"/>
+      <c r="B130"/>
+      <c r="C130"/>
+      <c r="D130"/>
+      <c r="E130"/>
+      <c r="F130"/>
+      <c r="G130"/>
+      <c r="H130"/>
+      <c r="I130"/>
+      <c r="J130"/>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A131"/>
+      <c r="B131"/>
+      <c r="C131"/>
+      <c r="D131"/>
+      <c r="E131"/>
+      <c r="F131"/>
+      <c r="G131"/>
+      <c r="H131"/>
+      <c r="I131"/>
+      <c r="J131"/>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A132"/>
+      <c r="B132"/>
+      <c r="C132"/>
+      <c r="D132"/>
+      <c r="E132"/>
+      <c r="F132"/>
+      <c r="G132"/>
+      <c r="H132"/>
+      <c r="I132"/>
+      <c r="J132"/>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A133"/>
+      <c r="B133"/>
+      <c r="C133"/>
+      <c r="D133"/>
+      <c r="E133"/>
+      <c r="F133"/>
+      <c r="G133"/>
+      <c r="H133"/>
+      <c r="I133"/>
+      <c r="J133"/>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A134"/>
+      <c r="B134"/>
+      <c r="C134"/>
+      <c r="D134"/>
+      <c r="E134"/>
+      <c r="F134"/>
+      <c r="G134"/>
+      <c r="H134"/>
+      <c r="I134"/>
+      <c r="J134"/>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A135"/>
+      <c r="B135"/>
+      <c r="C135"/>
+      <c r="D135"/>
+      <c r="E135"/>
+      <c r="F135"/>
+      <c r="G135"/>
+      <c r="H135"/>
+      <c r="I135"/>
+      <c r="J135"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -2409,44 +3055,44 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="42" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="B2" s="42" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C2" s="42" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="D2" s="42" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="E2" s="42" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="F2" s="42"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="42" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C3" s="42" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="D3" s="42" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="E3" s="42" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="F3" s="42"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="42"/>
       <c r="B4" s="42" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C4" s="42"/>
       <c r="D4" s="42"/>
@@ -2462,19 +3108,19 @@
     </row>
     <row r="6" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A6" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="B6" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="C6" s="43" t="s">
-        <v>82</v>
-      </c>
-      <c r="D6" s="43" t="s">
-        <v>95</v>
-      </c>
       <c r="E6" s="43" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -2486,19 +3132,19 @@
     </row>
     <row r="8" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="B8" s="43" t="s">
-        <v>88</v>
-      </c>
-      <c r="C8" s="43" t="s">
-        <v>102</v>
-      </c>
-      <c r="D8" s="43" t="s">
-        <v>96</v>
-      </c>
       <c r="E8" s="43" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -2509,19 +3155,19 @@
     </row>
     <row r="10" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="43" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="B10" s="43" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C10" s="43" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D10" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="43" t="s">
         <v>94</v>
-      </c>
-      <c r="E10" s="43" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -2533,19 +3179,19 @@
     </row>
     <row r="12" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A12" s="43" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="B12" s="43" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C12" s="43" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D12" s="43" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="E12" s="43" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -2557,13 +3203,13 @@
     <row r="14" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="43" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C14" s="43" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="D14" s="43" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="E14" s="43"/>
     </row>
@@ -2576,13 +3222,13 @@
     <row r="16" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="41" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C16" s="43" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="D16" s="43" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="E16" s="43"/>
     </row>
@@ -2594,7 +3240,7 @@
     </row>
     <row r="18" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B18" s="41" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C18" s="43"/>
     </row>
@@ -2644,20 +3290,20 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="41" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -2669,7 +3315,7 @@
     </row>
     <row r="5" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="41" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -2681,7 +3327,7 @@
     </row>
     <row r="6" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="41" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C6">
         <v>6</v>
@@ -2693,7 +3339,7 @@
     </row>
     <row r="7" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" s="41" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C7">
         <v>8</v>
@@ -2705,7 +3351,7 @@
     </row>
     <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A8" s="41" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C8">
         <v>10</v>
@@ -2717,7 +3363,7 @@
     </row>
     <row r="9" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" s="41" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C9">
         <v>12</v>
@@ -2749,18 +3395,18 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="42" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="C1" s="42" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="D1" s="42" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="B2">
         <v>28</v>
@@ -2775,7 +3421,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="B3">
         <v>33</v>
@@ -2790,7 +3436,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="B4">
         <v>40</v>
